--- a/Data/HS300.xlsx
+++ b/Data/HS300.xlsx
@@ -28,7 +28,7 @@
     <t>PB</t>
   </si>
   <si>
-    <t>risk</t>
+    <t>Risk</t>
   </si>
   <si>
     <t>volume</t>
@@ -1743,14 +1743,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2208,46 +2201,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2259,97 +2255,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2685,7 +2678,7 @@
   <dimension ref="A1:J2431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Data/HS300.xlsx
+++ b/Data/HS300.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richy\Documents\Stock_Index\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA929720-EF94-43CE-A564-437B4BCD2C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D38F275-1C12-44B3-84C5-F39B05F3FF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46575" yWindow="-10440" windowWidth="21585" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1743,9 +1743,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="180" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1792,13 +1792,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2079,10 +2079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2560"/>
+  <dimension ref="A1:J2562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2432" workbookViewId="0">
-      <selection activeCell="E2446" sqref="E2446"/>
+    <sheetView tabSelected="1" topLeftCell="A2548" workbookViewId="0">
+      <selection activeCell="G2566" sqref="G2566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -84013,6 +84013,70 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2561" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2561" s="3">
+        <v>45125</v>
+      </c>
+      <c r="B2561" s="4">
+        <v>3854.9393</v>
+      </c>
+      <c r="C2561" s="4">
+        <v>11.659000396728516</v>
+      </c>
+      <c r="D2561" s="4">
+        <v>1.3571000099182129</v>
+      </c>
+      <c r="E2561" s="5">
+        <v>5.9508646365240478</v>
+      </c>
+      <c r="F2561" s="4">
+        <v>9143861500</v>
+      </c>
+      <c r="G2561" s="4">
+        <v>167104315117</v>
+      </c>
+      <c r="H2561" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I2561">
+        <v>1</v>
+      </c>
+      <c r="J2561">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2562" s="3">
+        <v>45126</v>
+      </c>
+      <c r="B2562" s="4">
+        <v>3850.8663000000001</v>
+      </c>
+      <c r="C2562" s="4">
+        <v>11.659500122070313</v>
+      </c>
+      <c r="D2562" s="4">
+        <v>1.357699990272522</v>
+      </c>
+      <c r="E2562" s="5">
+        <v>5.9502970241468258</v>
+      </c>
+      <c r="F2562" s="4">
+        <v>7958570000</v>
+      </c>
+      <c r="G2562" s="4">
+        <v>151311481030</v>
+      </c>
+      <c r="H2562" s="4">
+        <v>0.2611</v>
+      </c>
+      <c r="I2562">
+        <v>1</v>
+      </c>
+      <c r="J2562">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/HS300.xlsx
+++ b/Data/HS300.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richy\Documents\Stock_Index\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D38F275-1C12-44B3-84C5-F39B05F3FF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98DD521-B1A9-40E0-9093-F1EB9D4AC557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="1050" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2079,10 +2079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2562"/>
+  <dimension ref="A1:J2565"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2548" workbookViewId="0">
-      <selection activeCell="G2566" sqref="G2566"/>
+      <selection activeCell="I2563" sqref="I2563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -84077,6 +84077,102 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2563" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2563" s="3">
+        <v>45127</v>
+      </c>
+      <c r="B2563" s="4">
+        <v>3823.6945999999998</v>
+      </c>
+      <c r="C2563" s="4">
+        <v>11.576800346374512</v>
+      </c>
+      <c r="D2563" s="4">
+        <v>1.3483999967575073</v>
+      </c>
+      <c r="E2563" s="5">
+        <v>6.014765327899676</v>
+      </c>
+      <c r="F2563" s="4">
+        <v>9204207600</v>
+      </c>
+      <c r="G2563" s="4">
+        <v>174320872140</v>
+      </c>
+      <c r="H2563" s="4">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="I2563">
+        <v>0</v>
+      </c>
+      <c r="J2563">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2564" s="3">
+        <v>45128</v>
+      </c>
+      <c r="B2564" s="4">
+        <v>3821.91</v>
+      </c>
+      <c r="C2564" s="4">
+        <v>11.570400238037109</v>
+      </c>
+      <c r="D2564" s="4">
+        <v>1.3489999771118164</v>
+      </c>
+      <c r="E2564" s="5">
+        <v>6.030043374706695</v>
+      </c>
+      <c r="F2564" s="4">
+        <v>7950756300</v>
+      </c>
+      <c r="G2564" s="4">
+        <v>157144211209</v>
+      </c>
+      <c r="H2564" s="4">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="I2564">
+        <v>0</v>
+      </c>
+      <c r="J2564">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2565" s="3">
+        <v>45131</v>
+      </c>
+      <c r="B2565" s="4">
+        <v>3805.221</v>
+      </c>
+      <c r="C2565" s="4">
+        <v>11.538000106811523</v>
+      </c>
+      <c r="D2565" s="4">
+        <v>1.3451999425888062</v>
+      </c>
+      <c r="E2565" s="5">
+        <v>6.0616132669668161</v>
+      </c>
+      <c r="F2565" s="4">
+        <v>7548354500</v>
+      </c>
+      <c r="G2565" s="4">
+        <v>151448369566</v>
+      </c>
+      <c r="H2565" s="4">
+        <v>0.2477</v>
+      </c>
+      <c r="I2565">
+        <v>0</v>
+      </c>
+      <c r="J2565">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/HS300.xlsx
+++ b/Data/HS300.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richy\Documents\Stock_Index\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC997ED-68AA-4210-BAF9-D29F10F472CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598E67DC-50B2-4ACE-A74B-A0488FE352EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45885" yWindow="-10830" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2083,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2582"/>
+  <dimension ref="A1:J2600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2550" workbookViewId="0">
-      <selection activeCell="G2562" sqref="G2562"/>
+    <sheetView tabSelected="1" topLeftCell="A2592" workbookViewId="0">
+      <selection activeCell="G2609" sqref="G2609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -84702,8 +84702,8 @@
       <c r="D2582" s="4">
         <v>1.3509000539779663</v>
       </c>
-      <c r="E2582" s="2">
-        <v>8.638786567903562</v>
+      <c r="E2582" s="5">
+        <v>6.076686567903562</v>
       </c>
       <c r="F2582" s="4">
         <v>9461694600</v>
@@ -84720,6 +84720,558 @@
       <c r="J2582">
         <v>27</v>
       </c>
+    </row>
+    <row r="2583" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2583" s="3">
+        <v>45155</v>
+      </c>
+      <c r="B2583" s="4">
+        <v>3831.1008000000002</v>
+      </c>
+      <c r="C2583" s="4">
+        <v>11.593400001525879</v>
+      </c>
+      <c r="D2583" s="4">
+        <v>1.3531999588012695</v>
+      </c>
+      <c r="E2583" s="5">
+        <v>6.0555973214793219</v>
+      </c>
+      <c r="F2583" s="4">
+        <v>9841549300</v>
+      </c>
+      <c r="G2583" s="4">
+        <v>174093848243</v>
+      </c>
+      <c r="H2583" s="4">
+        <v>0.32269999999999999</v>
+      </c>
+      <c r="I2583">
+        <v>1</v>
+      </c>
+      <c r="J2583">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2584" s="3">
+        <v>45156</v>
+      </c>
+      <c r="B2584" s="4">
+        <v>3784.0038</v>
+      </c>
+      <c r="C2584" s="4">
+        <v>11.491299629211426</v>
+      </c>
+      <c r="D2584" s="4">
+        <v>1.3403999805450439</v>
+      </c>
+      <c r="E2584" s="5">
+        <v>6.1345358851208864</v>
+      </c>
+      <c r="F2584" s="4">
+        <v>9554963800</v>
+      </c>
+      <c r="G2584" s="4">
+        <v>168445686988</v>
+      </c>
+      <c r="H2584" s="4">
+        <v>0.31330000000000002</v>
+      </c>
+      <c r="I2584">
+        <v>1</v>
+      </c>
+      <c r="J2584">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2585" s="3">
+        <v>45159</v>
+      </c>
+      <c r="B2585" s="4">
+        <v>3729.5549999999998</v>
+      </c>
+      <c r="C2585" s="4">
+        <v>11.351200103759766</v>
+      </c>
+      <c r="D2585" s="4">
+        <v>1.3234000205993652</v>
+      </c>
+      <c r="E2585" s="5">
+        <v>6.2653411908797043</v>
+      </c>
+      <c r="F2585" s="4">
+        <v>9870836900</v>
+      </c>
+      <c r="G2585" s="4">
+        <v>173379942907</v>
+      </c>
+      <c r="H2585" s="4">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="I2585">
+        <v>0</v>
+      </c>
+      <c r="J2585">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2586" s="3">
+        <v>45160</v>
+      </c>
+      <c r="B2586" s="4">
+        <v>3758.2271000000001</v>
+      </c>
+      <c r="C2586" s="4">
+        <v>11.48900032043457</v>
+      </c>
+      <c r="D2586" s="4">
+        <v>1.3380999565124512</v>
+      </c>
+      <c r="E2586" s="5">
+        <v>6.153877475058291</v>
+      </c>
+      <c r="F2586" s="4">
+        <v>12031832700</v>
+      </c>
+      <c r="G2586" s="4">
+        <v>203463879672</v>
+      </c>
+      <c r="H2586" s="4">
+        <v>0.39450000000000002</v>
+      </c>
+      <c r="I2586">
+        <v>1</v>
+      </c>
+      <c r="J2586">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2587" s="3">
+        <v>45161</v>
+      </c>
+      <c r="B2587" s="4">
+        <v>3696.6338999999998</v>
+      </c>
+      <c r="C2587" s="4">
+        <v>11.35099983215332</v>
+      </c>
+      <c r="D2587" s="4">
+        <v>1.3212000131607056</v>
+      </c>
+      <c r="E2587" s="5">
+        <v>6.2546966239710269</v>
+      </c>
+      <c r="F2587" s="4">
+        <v>9708163800</v>
+      </c>
+      <c r="G2587" s="4">
+        <v>160476231587</v>
+      </c>
+      <c r="H2587" s="4">
+        <v>0.31830000000000003</v>
+      </c>
+      <c r="I2587">
+        <v>1</v>
+      </c>
+      <c r="J2587">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2588" s="3">
+        <v>45162</v>
+      </c>
+      <c r="B2588" s="4">
+        <v>3723.4292999999998</v>
+      </c>
+      <c r="C2588" s="4">
+        <v>11.392900466918945</v>
+      </c>
+      <c r="D2588" s="4">
+        <v>1.323699951171875</v>
+      </c>
+      <c r="E2588" s="5">
+        <v>6.2225960889385039</v>
+      </c>
+      <c r="F2588" s="4">
+        <v>11961452100</v>
+      </c>
+      <c r="G2588" s="4">
+        <v>196257391084</v>
+      </c>
+      <c r="H2588" s="4">
+        <v>0.39219999999999999</v>
+      </c>
+      <c r="I2588">
+        <v>0</v>
+      </c>
+      <c r="J2588">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2589" s="3">
+        <v>45163</v>
+      </c>
+      <c r="B2589" s="4">
+        <v>3709.1516999999999</v>
+      </c>
+      <c r="C2589" s="4">
+        <v>11.360400199890137</v>
+      </c>
+      <c r="D2589" s="4">
+        <v>1.3188999891281128</v>
+      </c>
+      <c r="E2589" s="5">
+        <v>6.2320067990973653</v>
+      </c>
+      <c r="F2589" s="4">
+        <v>10518261000</v>
+      </c>
+      <c r="G2589" s="4">
+        <v>175601437173</v>
+      </c>
+      <c r="H2589" s="4">
+        <v>0.34489999999999998</v>
+      </c>
+      <c r="I2589">
+        <v>1</v>
+      </c>
+      <c r="J2589">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2590" s="3">
+        <v>45166</v>
+      </c>
+      <c r="B2590" s="4">
+        <v>3752.6194</v>
+      </c>
+      <c r="C2590" s="4">
+        <v>11.580599784851074</v>
+      </c>
+      <c r="D2590" s="4">
+        <v>1.3293000459671021</v>
+      </c>
+      <c r="E2590" s="5">
+        <v>6.0473313280692906</v>
+      </c>
+      <c r="F2590" s="4">
+        <v>19799037900</v>
+      </c>
+      <c r="G2590" s="4">
+        <v>335047670967</v>
+      </c>
+      <c r="H2590" s="4">
+        <v>0.6492</v>
+      </c>
+      <c r="I2590">
+        <v>1</v>
+      </c>
+      <c r="J2590">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2591" s="3">
+        <v>45167</v>
+      </c>
+      <c r="B2591" s="4">
+        <v>3790.1066999999998</v>
+      </c>
+      <c r="C2591" s="4">
+        <v>11.625499725341797</v>
+      </c>
+      <c r="D2591" s="4">
+        <v>1.3344000577926636</v>
+      </c>
+      <c r="E2591" s="5">
+        <v>6.0317807717990313</v>
+      </c>
+      <c r="F2591" s="4">
+        <v>15248614600</v>
+      </c>
+      <c r="G2591" s="4">
+        <v>262134936751</v>
+      </c>
+      <c r="H2591" s="4">
+        <v>0.49940000000000001</v>
+      </c>
+      <c r="I2591">
+        <v>1</v>
+      </c>
+      <c r="J2591">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2592" s="3">
+        <v>45168</v>
+      </c>
+      <c r="B2592" s="4">
+        <v>3788.5097000000001</v>
+      </c>
+      <c r="C2592" s="4">
+        <v>11.695899963378906</v>
+      </c>
+      <c r="D2592" s="4">
+        <v>1.3255000114440918</v>
+      </c>
+      <c r="E2592" s="5">
+        <v>5.9875047292735513</v>
+      </c>
+      <c r="F2592" s="4">
+        <v>12967166100</v>
+      </c>
+      <c r="G2592" s="4">
+        <v>226727480839</v>
+      </c>
+      <c r="H2592" s="4">
+        <v>0.42470000000000002</v>
+      </c>
+      <c r="I2592">
+        <v>2</v>
+      </c>
+      <c r="J2592">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2593" s="3">
+        <v>45169</v>
+      </c>
+      <c r="B2593" s="4">
+        <v>3765.2678000000001</v>
+      </c>
+      <c r="C2593" s="4">
+        <v>11.652999877929688</v>
+      </c>
+      <c r="D2593" s="4">
+        <v>1.3061000108718872</v>
+      </c>
+      <c r="E2593" s="5">
+        <v>6.0273812535436448</v>
+      </c>
+      <c r="F2593" s="4">
+        <v>11896164600</v>
+      </c>
+      <c r="G2593" s="4">
+        <v>193577001342</v>
+      </c>
+      <c r="H2593" s="4">
+        <v>0.3896</v>
+      </c>
+      <c r="I2593">
+        <v>1</v>
+      </c>
+      <c r="J2593">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2594" s="3">
+        <v>45170</v>
+      </c>
+      <c r="B2594">
+        <v>3791.4911999999999</v>
+      </c>
+      <c r="C2594" s="4">
+        <v>11.708499908447266</v>
+      </c>
+      <c r="D2594" s="4">
+        <v>1.3128999471664429</v>
+      </c>
+      <c r="E2594" s="5">
+        <v>5.9583037564106363</v>
+      </c>
+      <c r="F2594" s="4">
+        <v>10531904500</v>
+      </c>
+      <c r="G2594" s="4">
+        <v>172219141586</v>
+      </c>
+      <c r="H2594" s="4">
+        <v>0.34489999999999998</v>
+      </c>
+      <c r="I2594">
+        <v>2</v>
+      </c>
+      <c r="J2594">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2595" s="3">
+        <v>45173</v>
+      </c>
+      <c r="B2595">
+        <v>3848.9517000000001</v>
+      </c>
+      <c r="C2595" s="4">
+        <v>11.887100219726563</v>
+      </c>
+      <c r="D2595" s="4">
+        <v>1.3329999446868896</v>
+      </c>
+      <c r="E2595" s="5">
+        <v>5.7999806009501524</v>
+      </c>
+      <c r="F2595" s="4">
+        <v>14238520100</v>
+      </c>
+      <c r="G2595" s="4">
+        <v>237934727924</v>
+      </c>
+      <c r="H2595" s="4">
+        <v>0.46629999999999999</v>
+      </c>
+      <c r="I2595">
+        <v>4</v>
+      </c>
+      <c r="J2595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2596" s="3">
+        <v>45174</v>
+      </c>
+      <c r="B2596">
+        <v>3820.3173999999999</v>
+      </c>
+      <c r="C2596" s="4">
+        <v>11.79419994354248</v>
+      </c>
+      <c r="D2596" s="4">
+        <v>1.3224999904632568</v>
+      </c>
+      <c r="E2596" s="5">
+        <v>5.8677438299069742</v>
+      </c>
+      <c r="F2596" s="4">
+        <v>10405233300</v>
+      </c>
+      <c r="G2596" s="4">
+        <v>181377877955</v>
+      </c>
+      <c r="H2596" s="4">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="I2596">
+        <v>2</v>
+      </c>
+      <c r="J2596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2597" s="3">
+        <v>45175</v>
+      </c>
+      <c r="B2597">
+        <v>3812.0282999999999</v>
+      </c>
+      <c r="C2597" s="4">
+        <v>11.779800415039063</v>
+      </c>
+      <c r="D2597" s="4">
+        <v>1.3208999633789063</v>
+      </c>
+      <c r="E2597" s="5">
+        <v>5.8541081747303441</v>
+      </c>
+      <c r="F2597" s="4">
+        <v>9344239300</v>
+      </c>
+      <c r="G2597" s="4">
+        <v>166081524007</v>
+      </c>
+      <c r="H2597" s="4">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="I2597">
+        <v>0</v>
+      </c>
+      <c r="J2597">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2598" s="3">
+        <v>45176</v>
+      </c>
+      <c r="B2598">
+        <v>3758.4748</v>
+      </c>
+      <c r="C2598" s="4">
+        <v>11.658699989318848</v>
+      </c>
+      <c r="D2598" s="4">
+        <v>1.3072999715805054</v>
+      </c>
+      <c r="E2598" s="5">
+        <v>5.9347856400469432</v>
+      </c>
+      <c r="F2598" s="4">
+        <v>9510390300</v>
+      </c>
+      <c r="G2598" s="4">
+        <v>164405748828</v>
+      </c>
+      <c r="H2598" s="4">
+        <v>0.3115</v>
+      </c>
+      <c r="I2598">
+        <v>0</v>
+      </c>
+      <c r="J2598">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2599" s="3">
+        <v>45177</v>
+      </c>
+      <c r="B2599">
+        <v>3739.9926999999998</v>
+      </c>
+      <c r="C2599" s="4">
+        <v>11.614299774169922</v>
+      </c>
+      <c r="D2599" s="4">
+        <v>1.302299976348877</v>
+      </c>
+      <c r="E2599" s="5">
+        <v>5.972575677777745</v>
+      </c>
+      <c r="F2599" s="4">
+        <v>7163816600</v>
+      </c>
+      <c r="G2599" s="4">
+        <v>129197657303</v>
+      </c>
+      <c r="H2599" s="4">
+        <v>0.2346</v>
+      </c>
+      <c r="I2599">
+        <v>1</v>
+      </c>
+      <c r="J2599">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2600" s="3"/>
+      <c r="C2600" s="4"/>
+      <c r="D2600" s="4"/>
+      <c r="F2600" s="4"/>
+      <c r="G2600" s="4"/>
+      <c r="H2600" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
